--- a/results/table_latex_synchronous.xlsx
+++ b/results/table_latex_synchronous.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uses0.sharepoint.com/sites/GrupodeTrabajodeJusto/Documentos compartidos/General/AMMDRPG/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="215" documentId="8_{C2A7C7DE-57E4-4733-B817-7A49515F3B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C22F9B5B-A566-40A1-8AAB-E43A40320CB3}"/>
+  <xr:revisionPtr revIDLastSave="218" documentId="8_{C2A7C7DE-57E4-4733-B817-7A49515F3B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1939550-A0CD-40D8-9AB0-813383732D3B}"/>
   <bookViews>
-    <workbookView xWindow="4710" yWindow="4440" windowWidth="21645" windowHeight="11385" firstSheet="1" activeTab="2" xr2:uid="{C11ADB02-3193-43E2-BAC8-6656DB4DF9E3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{C11ADB02-3193-43E2-BAC8-6656DB4DF9E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Excel2LaTeX" sheetId="2" state="hidden" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="34">
   <si>
     <t>Size</t>
   </si>
@@ -138,16 +138,13 @@
   </si>
   <si>
     <t>Alpha_e</t>
-  </si>
-  <si>
-    <t>Capacity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,6 +188,11 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -267,7 +269,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -317,6 +319,9 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -341,7 +346,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -723,37 +728,37 @@
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="19">
+      <c r="D2" s="20">
         <v>1</v>
       </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19">
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20">
         <v>2</v>
       </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="20">
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="21">
         <v>3</v>
       </c>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -794,10 +799,10 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="21">
+      <c r="A4" s="22">
         <v>5</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="22">
         <v>20</v>
       </c>
       <c r="C4" s="10" t="s">
@@ -832,8 +837,8 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
-      <c r="B5" s="24"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="12" t="s">
         <v>20</v>
       </c>
@@ -866,8 +871,8 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23">
         <v>30</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -902,8 +907,8 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
@@ -936,8 +941,8 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22">
+      <c r="A8" s="23"/>
+      <c r="B8" s="23">
         <v>40</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -972,8 +977,8 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="2" t="s">
         <v>20</v>
       </c>
@@ -1006,8 +1011,8 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23">
         <v>50</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1042,8 +1047,8 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="2" t="s">
         <v>20</v>
       </c>
@@ -1076,8 +1081,8 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
-      <c r="B12" s="22">
+      <c r="A12" s="23"/>
+      <c r="B12" s="23">
         <v>60</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1112,8 +1117,8 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="12" t="s">
         <v>20</v>
       </c>
@@ -1146,10 +1151,10 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="21">
+      <c r="A14" s="22">
         <v>10</v>
       </c>
-      <c r="B14" s="21">
+      <c r="B14" s="22">
         <v>20</v>
       </c>
       <c r="C14" s="10" t="s">
@@ -1184,8 +1189,8 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="2" t="s">
         <v>20</v>
       </c>
@@ -1218,8 +1223,8 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23">
         <v>30</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -1254,8 +1259,8 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="2" t="s">
         <v>20</v>
       </c>
@@ -1288,8 +1293,8 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22">
+      <c r="A18" s="23"/>
+      <c r="B18" s="23">
         <v>40</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -1324,8 +1329,8 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="2" t="s">
         <v>20</v>
       </c>
@@ -1358,8 +1363,8 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22">
+      <c r="A20" s="23"/>
+      <c r="B20" s="23">
         <v>50</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -1394,8 +1399,8 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="2" t="s">
         <v>20</v>
       </c>
@@ -1428,8 +1433,8 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
-      <c r="B22" s="22">
+      <c r="A22" s="23"/>
+      <c r="B22" s="23">
         <v>60</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -1464,8 +1469,8 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="23"/>
-      <c r="B23" s="23"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
       <c r="C23" s="14" t="s">
         <v>20</v>
       </c>
@@ -1525,34 +1530,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E49CF9CB-E2F9-4C96-BD71-AEF95DC7D402}">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5:O9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
-        <v>34</v>
-      </c>
-    </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="25">
+      <c r="A5" s="17">
         <v>20</v>
       </c>
       <c r="B5">
@@ -1599,7 +1602,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="25">
+      <c r="A6" s="17">
         <v>30</v>
       </c>
       <c r="B6">
@@ -1646,7 +1649,7 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="25">
+      <c r="A7" s="17">
         <v>40</v>
       </c>
       <c r="B7">
@@ -1693,7 +1696,7 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="25">
+      <c r="A8" s="17">
         <v>50</v>
       </c>
       <c r="B8">
@@ -1740,7 +1743,7 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="25">
+      <c r="A9" s="17">
         <v>60</v>
       </c>
       <c r="B9">
@@ -1792,12 +1795,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100CC872E1270CB784E9B98D50896A839F6" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="b9b2a30e095b2a99c7a4efd6f687c21a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="116ddbad-b67c-4622-b846-55da43670eb8" xmlns:ns3="0838a0db-6cb4-4fef-a3f8-577e3ea6a4fe" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ae991ae10615842d01d4ebb88da5dac4" ns2:_="" ns3:_="">
     <xsd:import namespace="116ddbad-b67c-4622-b846-55da43670eb8"/>
@@ -2008,6 +2005,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2018,15 +2021,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8152C9CF-3BA0-43E8-A45C-3ADC3B0E631E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3264DFDE-62AA-4CD9-9BDF-032C8B99BAFA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2045,6 +2039,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8152C9CF-3BA0-43E8-A45C-3ADC3B0E631E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B67422AB-3813-4349-A1FC-5E338D82E014}">
   <ds:schemaRefs>
